--- a/DictionaryFrameworkForAndroid/src/com/eduven/report/excelreports.xlsx
+++ b/DictionaryFrameworkForAndroid/src/com/eduven/report/excelreports.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Regressing Testing" r:id="rId3" sheetId="1"/>
+    <sheet name="Regressing Testing" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="54">
   <si>
     <t>ClassName-WithPackageName</t>
   </si>
@@ -179,43 +186,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="13"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,46 +238,379 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -296,7 +620,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
@@ -306,7 +630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -316,7 +640,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
@@ -326,7 +650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -336,7 +660,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
@@ -346,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -356,7 +680,7 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
@@ -366,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -376,7 +700,7 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
@@ -386,7 +710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -396,7 +720,7 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
@@ -406,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -416,7 +740,7 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
@@ -426,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -436,7 +760,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
@@ -446,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -456,7 +780,7 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
@@ -466,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -476,7 +800,7 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s" s="1">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
@@ -489,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -499,7 +823,7 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s" s="1">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
@@ -512,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -522,7 +846,7 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
@@ -532,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -542,7 +866,7 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
@@ -552,7 +876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -562,7 +886,7 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
@@ -572,7 +896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -582,7 +906,7 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
@@ -592,7 +916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -602,7 +926,7 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
@@ -612,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -622,7 +946,7 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
@@ -632,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -642,7 +966,7 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
@@ -652,7 +976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -662,7 +986,7 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F20" t="s">
@@ -672,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -682,7 +1006,7 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
@@ -692,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -702,7 +1026,7 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s" s="1">
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -715,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -725,7 +1049,7 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" t="s" s="1">
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
@@ -738,7 +1062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -748,7 +1072,7 @@
       <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
@@ -758,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -768,7 +1092,7 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
@@ -778,7 +1102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -788,7 +1112,7 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
@@ -798,7 +1122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -808,7 +1132,7 @@
       <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F27" t="s">
@@ -818,7 +1142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -828,7 +1152,7 @@
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="D28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
@@ -838,7 +1162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -848,7 +1172,7 @@
       <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F29" t="s">
@@ -858,7 +1182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -868,7 +1192,7 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
@@ -878,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -888,7 +1212,7 @@
       <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
@@ -898,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -908,7 +1232,7 @@
       <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
@@ -918,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -928,7 +1252,7 @@
       <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F33" t="s">
@@ -938,7 +1262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -948,7 +1272,7 @@
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F34" t="s">
@@ -958,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -968,7 +1292,7 @@
       <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F35" t="s">
@@ -978,7 +1302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -988,7 +1312,7 @@
       <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="D36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F36" t="s">
@@ -998,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1008,7 +1332,7 @@
       <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
@@ -1018,7 +1342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1028,7 +1352,7 @@
       <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
@@ -1038,7 +1362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1048,7 +1372,7 @@
       <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
@@ -1058,7 +1382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1068,7 +1392,7 @@
       <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F40" t="s">
@@ -1078,7 +1402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1088,7 +1412,7 @@
       <c r="C41" t="s">
         <v>44</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F41" t="s">
@@ -1098,7 +1422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1108,7 +1432,7 @@
       <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
@@ -1118,7 +1442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1128,7 +1452,7 @@
       <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" t="s" s="1">
+      <c r="D43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E43" t="s">
@@ -1141,7 +1465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1151,7 +1475,7 @@
       <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s" s="1">
+      <c r="D44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
@@ -1164,7 +1488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1174,7 +1498,7 @@
       <c r="C45" t="s">
         <v>24</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F45" t="s">
@@ -1184,7 +1508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1194,7 +1518,7 @@
       <c r="C46" t="s">
         <v>24</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F46" t="s">
@@ -1204,7 +1528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1538,7 @@
       <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F47" t="s">
@@ -1224,7 +1548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1234,7 +1558,7 @@
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F48" t="s">
@@ -1244,7 +1568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -1254,7 +1578,7 @@
       <c r="C49" t="s">
         <v>24</v>
       </c>
-      <c r="D49" t="s" s="3">
+      <c r="D49" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F49" t="s">
@@ -1264,7 +1588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1274,7 +1598,7 @@
       <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F50" t="s">
@@ -1284,7 +1608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1294,7 +1618,7 @@
       <c r="C51" t="s">
         <v>24</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F51" t="s">
@@ -1304,7 +1628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -1314,7 +1638,7 @@
       <c r="C52" t="s">
         <v>24</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F52" t="s">
@@ -1324,7 +1648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1658,7 @@
       <c r="C53" t="s">
         <v>24</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F53" t="s">
@@ -1344,7 +1668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1354,7 +1678,7 @@
       <c r="C54" t="s">
         <v>24</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F54" t="s">
@@ -1364,7 +1688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -1374,7 +1698,7 @@
       <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F55" t="s">
@@ -1384,7 +1708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1718,7 @@
       <c r="C56" t="s">
         <v>24</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F56" t="s">
@@ -1404,7 +1728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -1414,7 +1738,7 @@
       <c r="C57" t="s">
         <v>24</v>
       </c>
-      <c r="D57" t="s" s="3">
+      <c r="D57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F57" t="s">
@@ -1425,6 +1749,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>